--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Oct" sheetId="1" r:id="rId1"/>
+    <sheet name="Nov" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Time sheet</t>
   </si>
@@ -118,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -137,6 +138,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,4 +757,417 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>43038</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D2" s="5">
+        <f>C2-B2</f>
+        <v>0.52083333333333326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>43039</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D33" si="0">C3-B3</f>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>43040</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>0.51736111111111116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>43041</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>43042</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.52777777777777768</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>43043</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>43044</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25347222222222215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>43045</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.54166666666666674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>43046</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>43047</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>43048</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>43049</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>43050</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>43051</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>43052</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>43053</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>43054</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>43055</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>43056</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>43057</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>43058</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>43059</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>43060</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>43061</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>43062</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>43063</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>43064</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>43065</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>43066</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>43067</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>43068</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>43069</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>